--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14700" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -121,19 +122,41 @@
   </si>
   <si>
     <t>A4396</t>
+  </si>
+  <si>
+    <t>Ahana Mukherjee</t>
+  </si>
+  <si>
+    <t>lka02.ad@gmail.com</t>
+  </si>
+  <si>
+    <t>A4324</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>C82S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,13 +176,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -608,7 +637,30 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>7978524614</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
